--- a/app/tables/tabla_secante.xlsx
+++ b/app/tables/tabla_secante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-75</v>
+        <v>-2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.000005</v>
+        <v>1.000001</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-72.29381928997699</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.000005</v>
+        <v>1.000001</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>167.286012731271</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>-45.6396747455757</v>
+        <v>-0.962962962962963</v>
       </c>
       <c r="D4" t="n">
-        <v>160.286012731271</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>441.742447644579</v>
+        <v>1.46268656716418</v>
       </c>
       <c r="C5" t="n">
-        <v>-17.9975833298854</v>
+        <v>-0.333338874795104</v>
       </c>
       <c r="D5" t="n">
-        <v>274.456434913308</v>
+        <v>0.129353233830846</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>620.439221470155</v>
+        <v>1.5311694321412</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.25561172458789</v>
+        <v>0.0586264177094502</v>
       </c>
       <c r="D6" t="n">
-        <v>178.696773825576</v>
+        <v>0.06848286497702551</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>659.902552942285</v>
+        <v>1.52092642051528</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.202792517081662</v>
+        <v>-0.0026933002019943</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4633314721297</v>
+        <v>0.0102430116259242</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>662.524021092768</v>
+        <v>1.52137631666974</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0021885137978188</v>
+        <v>-2.01501923870355e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>2.62146815048322</v>
+        <v>0.0004498961544632</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>662.552620318726</v>
+        <v>1.52137970798487</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.46057210770323e-06</v>
+        <v>7.015478012664331e-09</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0285992259574641</v>
+        <v>3.39131512783197e-06</v>
       </c>
     </row>
     <row r="10">
@@ -572,27 +572,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>662.552639418047</v>
+        <v>1.52137970680456</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.05160324892495e-11</v>
+        <v>-1.8429781545085e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>1.9099321093563e-05</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>662.552639418184</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.37561073643155e-10</v>
+        <v>1.18030718532225e-09</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_secante.xlsx
+++ b/app/tables/tabla_secante.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -460,125 +460,125 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>-2</v>
-      </c>
       <c r="D2" t="n">
-        <v>1.000001</v>
+        <v>1.00001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>-0.281718171540955</v>
       </c>
       <c r="D3" t="n">
-        <v>1.000001</v>
+        <v>1.00001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.33333333333333</v>
+        <v>0.780202717105698</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.962962962962963</v>
+        <v>-0.158693619249085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.219797282894302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.46268656716418</v>
+        <v>0.496678610138336</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.333338874795104</v>
+        <v>0.153218478153997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129353233830846</v>
+        <v>0.283524106967362</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.5311694321412</v>
+        <v>0.635952247009725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0586264177094502</v>
+        <v>-0.0190368325556636</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06848286497702551</v>
+        <v>0.139273636871389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.52092642051528</v>
+        <v>0.62056039120211</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0026933002019943</v>
+        <v>-0.0017111128981504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0102430116259242</v>
+        <v>0.0153918558076145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.52137631666974</v>
+        <v>0.61904026946867</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.01501923870355e-05</v>
+        <v>2.40192824358942e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0004498961544632</v>
+        <v>0.0015201217334402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.52137970798487</v>
+        <v>0.619061312380364</v>
       </c>
       <c r="C9" t="n">
-        <v>7.015478012664331e-09</v>
+        <v>-2.93068544987563e-08</v>
       </c>
       <c r="D9" t="n">
-        <v>3.39131512783197e-06</v>
+        <v>2.10429116933586e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.52137970680456</v>
+        <v>0.6190612867363831</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.8429781545085e-14</v>
+        <v>-5.00710584105946e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>1.18030718532225e-09</v>
+        <v>2.56439803836273e-08</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_secante.xlsx
+++ b/app/tables/tabla_secante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -460,125 +460,83 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C2" t="n">
-        <v>-2</v>
+        <v>1.53703703703704</v>
       </c>
       <c r="D2" t="n">
-        <v>1.000001</v>
+        <v>1.000005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>-0.75</v>
       </c>
       <c r="D3" t="n">
-        <v>1.000001</v>
+        <v>1.000005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.33333333333333</v>
+        <v>-2.32793522267206</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.962962962962963</v>
+        <v>-0.0402948543281054</v>
       </c>
       <c r="D4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.327935222672065</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.46268656716418</v>
+        <v>-2.3465543662801</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.333338874795104</v>
+        <v>0.0015198464829762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129353233830846</v>
+        <v>0.0186191436080341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.5311694321412</v>
+        <v>-2.34587761290438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0586264177094502</v>
+        <v>-2.4874291515431e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06848286497702551</v>
+        <v>0.0006767533757217001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.52092642051528</v>
+        <v>-2.34587871869074</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0026933002019943</v>
+        <v>-1.51896273337115e-10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0102430116259242</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.52137631666974</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-2.01501923870355e-05</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0004498961544632</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.52137970798487</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.015478012664331e-09</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.39131512783197e-06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.52137970680456</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-1.8429781545085e-14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.18030718532225e-09</v>
+        <v>1.10578635981184e-06</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_secante.xlsx
+++ b/app/tables/tabla_secante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>-0.909297426825682</v>
       </c>
       <c r="D2" t="n">
-        <v>1.00001</v>
+        <v>1.0005</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.281718171540955</v>
+        <v>0.141120008059867</v>
       </c>
       <c r="D3" t="n">
-        <v>1.00001</v>
+        <v>1.0005</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.780202717105698</v>
+        <v>2.32826701379322</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.158693619249085</v>
+        <v>0.726576188310738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.219797282894302</v>
+        <v>0.671732986206781</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.496678610138336</v>
+        <v>3.16191641257756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.153218478153997</v>
+        <v>-0.0203223598776722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.283524106967362</v>
+        <v>0.833649398784336</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.635952247009725</v>
+        <v>3.13923364912194</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0190368325556636</v>
+        <v>0.002359002279916</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139273636871389</v>
+        <v>0.0226827634556157</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.62056039120211</v>
+        <v>3.14159279714554</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0017111128981504</v>
+        <v>-1.43555744946614e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0153918558076145</v>
+        <v>0.0023591480235984</v>
       </c>
     </row>
     <row r="8">
@@ -544,41 +544,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.61904026946867</v>
+        <v>3.14159265358966</v>
       </c>
       <c r="C8" t="n">
-        <v>2.40192824358942e-05</v>
+        <v>1.33349227634934e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0015201217334402</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.619061312380364</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-2.93068544987563e-08</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.10429116933586e-05</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.6190612867363831</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5.00710584105946e-13</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.56439803836273e-08</v>
+        <v>1.43555878295842e-07</v>
       </c>
     </row>
   </sheetData>
